--- a/artfynd/A 12027-2022.xlsx
+++ b/artfynd/A 12027-2022.xlsx
@@ -32688,7 +32688,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>111419064</v>
+        <v>111419836</v>
       </c>
       <c r="B254" t="n">
         <v>96348</v>
@@ -32723,7 +32723,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -32742,13 +32742,13 @@
         </is>
       </c>
       <c r="Q254" t="n">
-        <v>432220.2894824292</v>
+        <v>432211.3915150585</v>
       </c>
       <c r="R254" t="n">
-        <v>6485761.149603307</v>
+        <v>6485761.303672196</v>
       </c>
       <c r="S254" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -32777,7 +32777,7 @@
       </c>
       <c r="Z254" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA254" t="inlineStr">
@@ -32787,7 +32787,7 @@
       </c>
       <c r="AB254" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD254" t="b">
@@ -32802,19 +32802,19 @@
       <c r="AT254" t="inlineStr"/>
       <c r="AW254" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Birgit Nielsen</t>
         </is>
       </c>
       <c r="AX254" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Birgit Nielsen</t>
         </is>
       </c>
       <c r="AY254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>111419836</v>
+        <v>111419064</v>
       </c>
       <c r="B255" t="n">
         <v>96348</v>
@@ -32849,7 +32849,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -32868,13 +32868,13 @@
         </is>
       </c>
       <c r="Q255" t="n">
-        <v>432211.3915150585</v>
+        <v>432220.2894824292</v>
       </c>
       <c r="R255" t="n">
-        <v>6485761.303672196</v>
+        <v>6485761.149603307</v>
       </c>
       <c r="S255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
       </c>
       <c r="Z255" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA255" t="inlineStr">
@@ -32913,7 +32913,7 @@
       </c>
       <c r="AB255" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD255" t="b">
@@ -32928,12 +32928,12 @@
       <c r="AT255" t="inlineStr"/>
       <c r="AW255" t="inlineStr">
         <is>
-          <t>Birgit Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AX255" t="inlineStr">
         <is>
-          <t>Birgit Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AY255" t="inlineStr"/>

--- a/artfynd/A 12027-2022.xlsx
+++ b/artfynd/A 12027-2022.xlsx
@@ -32688,7 +32688,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>111419836</v>
+        <v>111419064</v>
       </c>
       <c r="B254" t="n">
         <v>96348</v>
@@ -32723,7 +32723,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -32742,13 +32742,13 @@
         </is>
       </c>
       <c r="Q254" t="n">
-        <v>432211.3915150585</v>
+        <v>432220.2894824292</v>
       </c>
       <c r="R254" t="n">
-        <v>6485761.303672196</v>
+        <v>6485761.149603307</v>
       </c>
       <c r="S254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -32777,7 +32777,7 @@
       </c>
       <c r="Z254" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA254" t="inlineStr">
@@ -32787,7 +32787,7 @@
       </c>
       <c r="AB254" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD254" t="b">
@@ -32802,19 +32802,19 @@
       <c r="AT254" t="inlineStr"/>
       <c r="AW254" t="inlineStr">
         <is>
-          <t>Birgit Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AX254" t="inlineStr">
         <is>
-          <t>Birgit Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AY254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>111419064</v>
+        <v>111419836</v>
       </c>
       <c r="B255" t="n">
         <v>96348</v>
@@ -32849,7 +32849,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -32868,13 +32868,13 @@
         </is>
       </c>
       <c r="Q255" t="n">
-        <v>432220.2894824292</v>
+        <v>432211.3915150585</v>
       </c>
       <c r="R255" t="n">
-        <v>6485761.149603307</v>
+        <v>6485761.303672196</v>
       </c>
       <c r="S255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
       </c>
       <c r="Z255" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA255" t="inlineStr">
@@ -32913,7 +32913,7 @@
       </c>
       <c r="AB255" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD255" t="b">
@@ -32928,12 +32928,12 @@
       <c r="AT255" t="inlineStr"/>
       <c r="AW255" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Birgit Nielsen</t>
         </is>
       </c>
       <c r="AX255" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Birgit Nielsen</t>
         </is>
       </c>
       <c r="AY255" t="inlineStr"/>

--- a/artfynd/A 12027-2022.xlsx
+++ b/artfynd/A 12027-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY255"/>
+  <dimension ref="A1:AY256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32938,6 +32938,140 @@
       </c>
       <c r="AY255" t="inlineStr"/>
     </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>111418425</v>
+      </c>
+      <c r="B256" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr"/>
+      <c r="N256" t="inlineStr"/>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>Högsmon (Högsmon), Vg</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>432220</v>
+      </c>
+      <c r="R256" t="n">
+        <v>6485761</v>
+      </c>
+      <c r="S256" t="n">
+        <v>1</v>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Västra Götaland</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>Skövde</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>Binneberg</t>
+        </is>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AA256" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="AB256" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AC256" t="inlineStr">
+        <is>
+          <t>En blomma, en rosett</t>
+        </is>
+      </c>
+      <c r="AD256" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE256" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF256" t="inlineStr"/>
+      <c r="AG256" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT256" t="inlineStr"/>
+      <c r="AW256" t="inlineStr">
+        <is>
+          <t>Gitte Jutvik Guterstam</t>
+        </is>
+      </c>
+      <c r="AX256" t="inlineStr">
+        <is>
+          <t>Gitte Jutvik Guterstam</t>
+        </is>
+      </c>
+      <c r="AY256" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 12027-2022.xlsx
+++ b/artfynd/A 12027-2022.xlsx
@@ -24832,7 +24832,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>103274334</v>
+        <v>103429045</v>
       </c>
       <c r="B192" t="n">
         <v>96334</v>
@@ -24867,7 +24867,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -24893,7 +24893,7 @@
         <v>6485807.904025332</v>
       </c>
       <c r="S192" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T192" t="inlineStr">
         <is>
@@ -24917,22 +24917,22 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="Z192" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="AB192" t="inlineStr">
         <is>
-          <t>19:19</t>
+          <t>17:02</t>
         </is>
       </c>
       <c r="AD192" t="b">
@@ -32320,55 +32320,73 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>103324190</v>
+        <v>103497415</v>
       </c>
       <c r="B251" t="n">
-        <v>96334</v>
+        <v>57549</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>220787</v>
+        <v>208245</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>årsunge</t>
+        </is>
+      </c>
       <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>Skövde, Vg</t>
+          <t>Säter Högsmon 2, Skövde, Vg</t>
         </is>
       </c>
       <c r="Q251" t="n">
-        <v>432446.7436843051</v>
+        <v>432214.9662010632</v>
       </c>
       <c r="R251" t="n">
-        <v>6485868.026016678</v>
+        <v>6485786.326763283</v>
       </c>
       <c r="S251" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
@@ -32392,22 +32410,22 @@
       </c>
       <c r="Y251" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="Z251" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA251" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="AB251" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD251" t="b">
@@ -32422,85 +32440,75 @@
       <c r="AT251" t="inlineStr"/>
       <c r="AW251" t="inlineStr">
         <is>
-          <t>Samuel Sjöberg</t>
+          <t>Karin Nielsen</t>
         </is>
       </c>
       <c r="AX251" t="inlineStr">
         <is>
-          <t>Samuel Sjöberg</t>
+          <t>Karin Nielsen</t>
         </is>
       </c>
       <c r="AY251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>103497415</v>
+        <v>111399311</v>
       </c>
       <c r="B252" t="n">
-        <v>57549</v>
+        <v>96348</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>208245</v>
+        <v>220787</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>årsunge</t>
-        </is>
-      </c>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>vilande</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="P252" t="inlineStr">
         <is>
-          <t>Säter Högsmon 2, Skövde, Vg</t>
+          <t>Högsmon (Högsmon), Vg</t>
         </is>
       </c>
       <c r="Q252" t="n">
-        <v>432214.9662010632</v>
+        <v>432241.1535342821</v>
       </c>
       <c r="R252" t="n">
-        <v>6485786.326763283</v>
+        <v>6485756.60757375</v>
       </c>
       <c r="S252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T252" t="inlineStr">
         <is>
@@ -32524,22 +32532,22 @@
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z252" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA252" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB252" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD252" t="b">
@@ -32554,19 +32562,19 @@
       <c r="AT252" t="inlineStr"/>
       <c r="AW252" t="inlineStr">
         <is>
-          <t>Karin Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AX252" t="inlineStr">
         <is>
-          <t>Karin Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AY252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>111399311</v>
+        <v>111419836</v>
       </c>
       <c r="B253" t="n">
         <v>96348</v>
@@ -32601,7 +32609,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -32609,20 +32617,24 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P253" t="inlineStr">
         <is>
           <t>Högsmon (Högsmon), Vg</t>
         </is>
       </c>
       <c r="Q253" t="n">
-        <v>432241.1535342821</v>
+        <v>432211.3915150585</v>
       </c>
       <c r="R253" t="n">
-        <v>6485756.60757375</v>
+        <v>6485761.303672196</v>
       </c>
       <c r="S253" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T253" t="inlineStr">
         <is>
@@ -32646,22 +32658,22 @@
       </c>
       <c r="Y253" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z253" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA253" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB253" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD253" t="b">
@@ -32676,19 +32688,19 @@
       <c r="AT253" t="inlineStr"/>
       <c r="AW253" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Birgit Nielsen</t>
         </is>
       </c>
       <c r="AX253" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Birgit Nielsen</t>
         </is>
       </c>
       <c r="AY253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>111419836</v>
+        <v>111419064</v>
       </c>
       <c r="B254" t="n">
         <v>96348</v>
@@ -32723,7 +32735,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -32742,13 +32754,13 @@
         </is>
       </c>
       <c r="Q254" t="n">
-        <v>432211.3915150585</v>
+        <v>432220.2894824292</v>
       </c>
       <c r="R254" t="n">
-        <v>6485761.303672196</v>
+        <v>6485761.149603307</v>
       </c>
       <c r="S254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -32777,7 +32789,7 @@
       </c>
       <c r="Z254" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA254" t="inlineStr">
@@ -32787,7 +32799,7 @@
       </c>
       <c r="AB254" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD254" t="b">
@@ -32802,19 +32814,19 @@
       <c r="AT254" t="inlineStr"/>
       <c r="AW254" t="inlineStr">
         <is>
-          <t>Birgit Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AX254" t="inlineStr">
         <is>
-          <t>Birgit Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AY254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>111419064</v>
+        <v>111418425</v>
       </c>
       <c r="B255" t="n">
         <v>96348</v>
@@ -32859,19 +32871,21 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr"/>
+      <c r="N255" t="inlineStr"/>
       <c r="P255" t="inlineStr">
         <is>
           <t>Högsmon (Högsmon), Vg</t>
         </is>
       </c>
       <c r="Q255" t="n">
-        <v>432220.2894824292</v>
+        <v>432220</v>
       </c>
       <c r="R255" t="n">
-        <v>6485761.149603307</v>
+        <v>6485761</v>
       </c>
       <c r="S255" t="n">
         <v>1</v>
@@ -32903,7 +32917,7 @@
       </c>
       <c r="Z255" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA255" t="inlineStr">
@@ -32913,7 +32927,12 @@
       </c>
       <c r="AB255" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AC255" t="inlineStr">
+        <is>
+          <t>En blomma, en rosett</t>
         </is>
       </c>
       <c r="AD255" t="b">
@@ -32922,6 +32941,7 @@
       <c r="AE255" t="b">
         <v>0</v>
       </c>
+      <c r="AF255" t="inlineStr"/>
       <c r="AG255" t="b">
         <v>0</v>
       </c>
@@ -32940,10 +32960,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>111418425</v>
+        <v>103324190</v>
       </c>
       <c r="B256" t="n">
-        <v>96348</v>
+        <v>96334</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -32973,36 +32993,22 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="N256" t="inlineStr"/>
       <c r="P256" t="inlineStr">
         <is>
-          <t>Högsmon (Högsmon), Vg</t>
+          <t>Skövde, Vg</t>
         </is>
       </c>
       <c r="Q256" t="n">
-        <v>432220</v>
+        <v>432446.7436843051</v>
       </c>
       <c r="R256" t="n">
-        <v>6485761</v>
+        <v>6485868.026016678</v>
       </c>
       <c r="S256" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T256" t="inlineStr">
         <is>
@@ -33026,27 +33032,22 @@
       </c>
       <c r="Y256" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="Z256" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA256" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="AB256" t="inlineStr">
         <is>
-          <t>09:58</t>
-        </is>
-      </c>
-      <c r="AC256" t="inlineStr">
-        <is>
-          <t>En blomma, en rosett</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD256" t="b">
@@ -33055,19 +33056,18 @@
       <c r="AE256" t="b">
         <v>0</v>
       </c>
-      <c r="AF256" t="inlineStr"/>
       <c r="AG256" t="b">
         <v>0</v>
       </c>
       <c r="AT256" t="inlineStr"/>
       <c r="AW256" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Samuel Sjöberg</t>
         </is>
       </c>
       <c r="AX256" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Samuel Sjöberg</t>
         </is>
       </c>
       <c r="AY256" t="inlineStr"/>

--- a/artfynd/A 12027-2022.xlsx
+++ b/artfynd/A 12027-2022.xlsx
@@ -32320,73 +32320,55 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>103497415</v>
+        <v>103324190</v>
       </c>
       <c r="B251" t="n">
-        <v>57549</v>
+        <v>96334</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>208245</v>
+        <v>220787</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>årsunge</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr">
-        <is>
-          <t>vilande</t>
-        </is>
-      </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>Säter Högsmon 2, Skövde, Vg</t>
+          <t>Skövde, Vg</t>
         </is>
       </c>
       <c r="Q251" t="n">
-        <v>432214.9662010632</v>
+        <v>432446.7436843051</v>
       </c>
       <c r="R251" t="n">
-        <v>6485786.326763283</v>
+        <v>6485868.026016678</v>
       </c>
       <c r="S251" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
@@ -32410,22 +32392,22 @@
       </c>
       <c r="Y251" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="Z251" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA251" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="AB251" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD251" t="b">
@@ -32440,75 +32422,85 @@
       <c r="AT251" t="inlineStr"/>
       <c r="AW251" t="inlineStr">
         <is>
-          <t>Karin Nielsen</t>
+          <t>Samuel Sjöberg</t>
         </is>
       </c>
       <c r="AX251" t="inlineStr">
         <is>
-          <t>Karin Nielsen</t>
+          <t>Samuel Sjöberg</t>
         </is>
       </c>
       <c r="AY251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>111399311</v>
+        <v>103497415</v>
       </c>
       <c r="B252" t="n">
-        <v>96348</v>
+        <v>57549</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>220787</v>
+        <v>208245</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K252" t="inlineStr"/>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>årsunge</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>Högsmon (Högsmon), Vg</t>
+          <t>Säter Högsmon 2, Skövde, Vg</t>
         </is>
       </c>
       <c r="Q252" t="n">
-        <v>432241.1535342821</v>
+        <v>432214.9662010632</v>
       </c>
       <c r="R252" t="n">
-        <v>6485756.60757375</v>
+        <v>6485786.326763283</v>
       </c>
       <c r="S252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T252" t="inlineStr">
         <is>
@@ -32532,22 +32524,22 @@
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="Z252" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AA252" t="inlineStr">
         <is>
-          <t>2023-08-11</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="AB252" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="AD252" t="b">
@@ -32562,19 +32554,19 @@
       <c r="AT252" t="inlineStr"/>
       <c r="AW252" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Karin Nielsen</t>
         </is>
       </c>
       <c r="AX252" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Karin Nielsen</t>
         </is>
       </c>
       <c r="AY252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>111419836</v>
+        <v>111399311</v>
       </c>
       <c r="B253" t="n">
         <v>96348</v>
@@ -32609,7 +32601,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -32617,24 +32609,20 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="P253" t="inlineStr">
         <is>
           <t>Högsmon (Högsmon), Vg</t>
         </is>
       </c>
       <c r="Q253" t="n">
-        <v>432211.3915150585</v>
+        <v>432241.1535342821</v>
       </c>
       <c r="R253" t="n">
-        <v>6485761.303672196</v>
+        <v>6485756.60757375</v>
       </c>
       <c r="S253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T253" t="inlineStr">
         <is>
@@ -32658,22 +32646,22 @@
       </c>
       <c r="Y253" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="Z253" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA253" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="AB253" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD253" t="b">
@@ -32688,19 +32676,19 @@
       <c r="AT253" t="inlineStr"/>
       <c r="AW253" t="inlineStr">
         <is>
-          <t>Birgit Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AX253" t="inlineStr">
         <is>
-          <t>Birgit Nielsen</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AY253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>111419064</v>
+        <v>111419836</v>
       </c>
       <c r="B254" t="n">
         <v>96348</v>
@@ -32735,7 +32723,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -32754,13 +32742,13 @@
         </is>
       </c>
       <c r="Q254" t="n">
-        <v>432220.2894824292</v>
+        <v>432211.3915150585</v>
       </c>
       <c r="R254" t="n">
-        <v>6485761.149603307</v>
+        <v>6485761.303672196</v>
       </c>
       <c r="S254" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -32789,7 +32777,7 @@
       </c>
       <c r="Z254" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA254" t="inlineStr">
@@ -32799,7 +32787,7 @@
       </c>
       <c r="AB254" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AD254" t="b">
@@ -32814,19 +32802,19 @@
       <c r="AT254" t="inlineStr"/>
       <c r="AW254" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Birgit Nielsen</t>
         </is>
       </c>
       <c r="AX254" t="inlineStr">
         <is>
-          <t>Gitte Jutvik Guterstam</t>
+          <t>Birgit Nielsen</t>
         </is>
       </c>
       <c r="AY254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>111418425</v>
+        <v>111419064</v>
       </c>
       <c r="B255" t="n">
         <v>96348</v>
@@ -32871,21 +32859,19 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L255" t="inlineStr"/>
-      <c r="N255" t="inlineStr"/>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P255" t="inlineStr">
         <is>
           <t>Högsmon (Högsmon), Vg</t>
         </is>
       </c>
       <c r="Q255" t="n">
-        <v>432220</v>
+        <v>432220.2894824292</v>
       </c>
       <c r="R255" t="n">
-        <v>6485761</v>
+        <v>6485761.149603307</v>
       </c>
       <c r="S255" t="n">
         <v>1</v>
@@ -32917,7 +32903,7 @@
       </c>
       <c r="Z255" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AA255" t="inlineStr">
@@ -32927,12 +32913,7 @@
       </c>
       <c r="AB255" t="inlineStr">
         <is>
-          <t>09:58</t>
-        </is>
-      </c>
-      <c r="AC255" t="inlineStr">
-        <is>
-          <t>En blomma, en rosett</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD255" t="b">
@@ -32941,7 +32922,6 @@
       <c r="AE255" t="b">
         <v>0</v>
       </c>
-      <c r="AF255" t="inlineStr"/>
       <c r="AG255" t="b">
         <v>0</v>
       </c>
@@ -32960,10 +32940,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>103324190</v>
+        <v>111418425</v>
       </c>
       <c r="B256" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -32993,22 +32973,36 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L256" t="inlineStr"/>
+      <c r="N256" t="inlineStr"/>
       <c r="P256" t="inlineStr">
         <is>
-          <t>Skövde, Vg</t>
+          <t>Högsmon (Högsmon), Vg</t>
         </is>
       </c>
       <c r="Q256" t="n">
-        <v>432446.7436843051</v>
+        <v>432220</v>
       </c>
       <c r="R256" t="n">
-        <v>6485868.026016678</v>
+        <v>6485761</v>
       </c>
       <c r="S256" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T256" t="inlineStr">
         <is>
@@ -33032,22 +33026,27 @@
       </c>
       <c r="Y256" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z256" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA256" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB256" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AC256" t="inlineStr">
+        <is>
+          <t>En blomma, en rosett</t>
         </is>
       </c>
       <c r="AD256" t="b">
@@ -33056,18 +33055,19 @@
       <c r="AE256" t="b">
         <v>0</v>
       </c>
+      <c r="AF256" t="inlineStr"/>
       <c r="AG256" t="b">
         <v>0</v>
       </c>
       <c r="AT256" t="inlineStr"/>
       <c r="AW256" t="inlineStr">
         <is>
-          <t>Samuel Sjöberg</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AX256" t="inlineStr">
         <is>
-          <t>Samuel Sjöberg</t>
+          <t>Gitte Jutvik Guterstam</t>
         </is>
       </c>
       <c r="AY256" t="inlineStr"/>
